--- a/exposan/biogenic_refinery/results/sysB_India.xlsx
+++ b/exposan/biogenic_refinery/results/sysB_India.xlsx
@@ -26399,7 +26399,7 @@
         <v>72.52000000000002</v>
       </c>
       <c r="E8">
-        <v>15.94264026598743</v>
+        <v>15.94264026598742</v>
       </c>
       <c r="F8">
         <v>9.996492280793969</v>
